--- a/Data/보안서약대상자.xlsx
+++ b/Data/보안서약대상자.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\AdobePDF서비스데모\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E62FCA-29C1-4EBA-AAB8-CB0245D16232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C637B-1FEB-4A0C-A21C-7292028E220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15023" yWindow="3810" windowWidth="21599" windowHeight="12172" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
+    <workbookView xWindow="9923" yWindow="4020" windowWidth="25695" windowHeight="13740" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="대상자" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>EmployeeNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,25 +109,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b7fc7ce7a00a4462923f8d4a3097fb7f-UipathAp</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAALH7lcS1DB7QXBZPdyh2T7uKPz99oObhI</t>
-  </si>
-  <si>
-    <t>2022-20-17</t>
-  </si>
-  <si>
-    <t>c418216b7b5b4b7fbabf1c1b81a1d5b5-UipathAp</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAA4QvOxirqxX3Zn-neVU-V52x_Ej-HadfB</t>
-  </si>
-  <si>
-    <t>f08bb5902fda416587d61a5b65e2cfa3-UipathAp</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAABMw-wrD1-A4ntB8tZ2kgisHp7t1oKXMO</t>
+    <t>5e7021fba2cf4037af81f1a3c9515960-UipathAp</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAron78-GPKNdYXydEJgCC9l3jtzANCq1a</t>
+  </si>
+  <si>
+    <t>6889ae414ca54a81be52ad252eccd834-UipathAp</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAA7wTTNG52S-56nVyZtT6hdDFu9OYaJ6ry</t>
+  </si>
+  <si>
+    <t>0a16046372d34db6b0751592cffa714b-UipathAp</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAA8jbbmd-zQfOtzJp4CyoR_E-yS6AhyIXw</t>
   </si>
 </sst>
 </file>
@@ -185,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -513,18 +516,18 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E2" sqref="E2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="22.8125" customWidth="1"/>
     <col min="5" max="5" width="17.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -575,9 +578,10 @@
       <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G2" s="3">
+        <v>44643</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="84.4">
       <c r="A3">
@@ -593,16 +597,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
+      <c r="G3" s="3">
+        <v>44674</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="101.25">
+    <row r="4" spans="1:9" ht="84.4">
       <c r="A4">
         <v>1470</v>
       </c>
@@ -616,13 +620,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
+      <c r="G4" s="3">
+        <v>44674</v>
       </c>
     </row>
   </sheetData>

--- a/Data/보안서약대상자.xlsx
+++ b/Data/보안서약대상자.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\AdobePDF서비스데모\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C637B-1FEB-4A0C-A21C-7292028E220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40106E0F-082F-4F74-90B2-2C7E7E38B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9923" yWindow="4020" windowWidth="25695" windowHeight="13740" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
+    <workbookView xWindow="10223" yWindow="2872" windowWidth="25695" windowHeight="13740" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="대상자" sheetId="1" r:id="rId1"/>
+    <sheet name="폼데이터" sheetId="2" r:id="rId1"/>
+    <sheet name="대상자" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>EmployeeNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,22 +110,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5e7021fba2cf4037af81f1a3c9515960-UipathAp</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAAron78-GPKNdYXydEJgCC9l3jtzANCq1a</t>
-  </si>
-  <si>
-    <t>6889ae414ca54a81be52ad252eccd834-UipathAp</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAA7wTTNG52S-56nVyZtT6hdDFu9OYaJ6ry</t>
-  </si>
-  <si>
-    <t>0a16046372d34db6b0751592cffa714b-UipathAp</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAA8jbbmd-zQfOtzJp4CyoR_E-yS6AhyIXw</t>
+    <t>8817545d5e86466292f120364ccd0440-UipathAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAUZ6sxYhIBLk9tsATMzW6FNUKup_mwRVL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0797db8722584b0b9876d6c13f89992c-UipathAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAE87sm2UxBbtm-v2tZQ-8Tuizh5zm_bw4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c75ac09b744c4b4a9ce2051d62da52bb-UipathAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAabxG9WjkVS-sSai_4jYm69j7s_kZ-yIl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_FOR_SIGNATURE</t>
+  </si>
+  <si>
+    <t>SIGNED</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Check1</t>
+  </si>
+  <si>
+    <t>Check2</t>
+  </si>
+  <si>
+    <t>EmployeeBirthDate</t>
+  </si>
+  <si>
+    <t>Signature_reason</t>
+  </si>
+  <si>
+    <t>agreementId</t>
+  </si>
+  <si>
+    <t>ccha@adobe.com</t>
+  </si>
+  <si>
+    <t>SIGNER</t>
+  </si>
+  <si>
+    <t>Choungwon</t>
+  </si>
+  <si>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>Adobe Inc.</t>
+  </si>
+  <si>
+    <t>hyungsoo.kim@uipath.com</t>
+  </si>
+  <si>
+    <t>Hyungsoo</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAE87sm2UxBbtm-v2tZQ-8Tuizh5zm_bw4</t>
+  </si>
+  <si>
+    <t>javaos@naver.com</t>
+  </si>
+  <si>
+    <t>김형수</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAabxG9WjkVS-sSai_4jYm69j7s_kZ-yIl</t>
   </si>
 </sst>
 </file>
@@ -182,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +290,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,11 +609,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54BF02C-25FE-4233-B085-9BE2009100A5}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
+        <v>44735.568969907406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>44735.571261574078</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>20020623</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
+        <v>44735.573287037034</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>20020623</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04292286-BCB9-4E7B-B4B5-D5B165290B11}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -579,9 +818,14 @@
         <v>19</v>
       </c>
       <c r="G2" s="3">
-        <v>44643</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>44735</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44735</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="84.4">
       <c r="A3">
@@ -603,7 +847,10 @@
         <v>21</v>
       </c>
       <c r="G3" s="3">
-        <v>44674</v>
+        <v>44735</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="84.4">
@@ -626,7 +873,13 @@
         <v>23</v>
       </c>
       <c r="G4" s="3">
-        <v>44674</v>
+        <v>44735</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4">
+        <v>44735</v>
       </c>
     </row>
   </sheetData>

--- a/Data/보안서약대상자.xlsx
+++ b/Data/보안서약대상자.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\AdobePDF서비스데모\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40106E0F-082F-4F74-90B2-2C7E7E38B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0392D1A-72EB-450B-94E9-88B213DFC3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10223" yWindow="2872" windowWidth="25695" windowHeight="13740" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
   </bookViews>
@@ -110,115 +110,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8817545d5e86466292f120364ccd0440-UipathAp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBJCHBCAABAAUZ6sxYhIBLk9tsATMzW6FNUKup_mwRVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0797db8722584b0b9876d6c13f89992c-UipathAp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBJCHBCAABAAE87sm2UxBbtm-v2tZQ-8Tuizh5zm_bw4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c75ac09b744c4b4a9ce2051d62da52bb-UipathAp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBJCHBCAABAAabxG9WjkVS-sSai_4jYm69j7s_kZ-yIl</t>
+    <t>ccha@adobe.com</t>
+  </si>
+  <si>
+    <t>SIGNER</t>
+  </si>
+  <si>
+    <t>Choungwon</t>
+  </si>
+  <si>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>Adobe Inc.</t>
+  </si>
+  <si>
+    <t>hyungsoo.kim@uipath.com</t>
+  </si>
+  <si>
+    <t>Hyungsoo</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>javaos@naver.com</t>
+  </si>
+  <si>
+    <t>김형수</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAAKebUYM7GV1cZC--CRMaVMzRbZYDHEpbX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31d8e9a85f924b7f80c59277b6604dce-UipathAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBJCHBCAABAA0wAW8UxzYUODNL2OxXR4ltLTx-3Q4vTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6088acfd7a2649cd912e50c1aa2bc3fb-UipathAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBJCHBCAABAArUpoEia-rmDWW09kczNtPaHFU4ZQGQha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OUT_FOR_SIGNATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SIGNED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5fccb024f48347d081f5fffc7222185c-UipathAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>company</t>
-  </si>
-  <si>
-    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Check1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Check2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EmployeeBirthDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Signature_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>agreementId</t>
-  </si>
-  <si>
-    <t>ccha@adobe.com</t>
-  </si>
-  <si>
-    <t>SIGNER</t>
-  </si>
-  <si>
-    <t>Choungwon</t>
-  </si>
-  <si>
-    <t>Cha</t>
-  </si>
-  <si>
-    <t>Adobe Inc.</t>
-  </si>
-  <si>
-    <t>hyungsoo.kim@uipath.com</t>
-  </si>
-  <si>
-    <t>Hyungsoo</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAAE87sm2UxBbtm-v2tZQ-8Tuizh5zm_bw4</t>
-  </si>
-  <si>
-    <t>javaos@naver.com</t>
-  </si>
-  <si>
-    <t>김형수</t>
-  </si>
-  <si>
-    <t>CBJCHBCAABAAabxG9WjkVS-sSai_4jYm69j7s_kZ-yIl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBJCHBCAABAA0wAW8UxzYUODNL2OxXR4ltLTx-3Q4vTT</t>
+  </si>
+  <si>
+    <t>CBJCHBCAABAArUpoEia-rmDWW09kczNtPaHFU4ZQGQha</t>
   </si>
 </sst>
 </file>
@@ -618,127 +633,127 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5">
-        <v>44735.568969907406</v>
+        <v>44735.594976851855</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5">
-        <v>44735.571261574078</v>
+        <v>44735.595891203702</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>20020623</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5">
-        <v>44735.573287037034</v>
+        <v>44735.598263888889</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>20020623</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>52</v>
@@ -812,16 +827,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
         <v>44735</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4">
         <v>44735</v>
@@ -841,16 +856,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3">
         <v>44735</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="84.4">
@@ -867,16 +882,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3">
         <v>44735</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4">
         <v>44735</v>
